--- a/help/шаблон Мониторинг ВП.xlsx
+++ b/help/шаблон Мониторинг ВП.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharinM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки_временные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25770" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25770" windowHeight="7455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Разница" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Проверка!$A$2:$Z$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Разница!$A$6:$AG$80</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Данные!$6:$6,Данные!$A:$B</definedName>
   </definedNames>
@@ -1136,21 +1137,6 @@
     <xf numFmtId="1" fontId="29" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1158,11 +1144,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,7 +1184,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1194,21 +1195,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Нейтральный 2" xfId="7"/>
@@ -1220,7 +1221,28 @@
     <cellStyle name="Плохой" xfId="4" builtinId="27"/>
     <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1833,169 +1855,169 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="95" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="97"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="98"/>
     </row>
     <row r="3" spans="1:34" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="100" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="100" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="100" t="s">
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="100" t="s">
+      <c r="N3" s="102"/>
+      <c r="O3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="100" t="s">
+      <c r="P3" s="102"/>
+      <c r="Q3" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="101"/>
-      <c r="S3" s="100" t="s">
+      <c r="R3" s="102"/>
+      <c r="S3" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="100" t="s">
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="100" t="s">
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="100" t="s">
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="100" t="s">
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="101"/>
+      <c r="AH3" s="102"/>
     </row>
     <row r="4" spans="1:34" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="98" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="100" t="s">
+      <c r="E4" s="98"/>
+      <c r="F4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="100" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="98" t="s">
+      <c r="K4" s="105"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="100" t="s">
+      <c r="T4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="97"/>
-      <c r="V4" s="100" t="s">
+      <c r="U4" s="98"/>
+      <c r="V4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="97"/>
-      <c r="X4" s="98" t="s">
+      <c r="W4" s="98"/>
+      <c r="X4" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="100" t="s">
+      <c r="Y4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="100" t="s">
+      <c r="Z4" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="103"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="107"/>
     </row>
     <row r="5" spans="1:34" s="7" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
@@ -2008,8 +2030,8 @@
       <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="10" t="s">
         <v>15</v>
       </c>
@@ -2037,7 +2059,7 @@
       <c r="R5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="99"/>
+      <c r="S5" s="100"/>
       <c r="T5" s="10" t="s">
         <v>21</v>
       </c>
@@ -2050,8 +2072,8 @@
       <c r="W5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
       <c r="Z5" s="10" t="s">
         <v>15</v>
       </c>
@@ -2185,10 +2207,10 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="2">
         <f t="shared" ref="C7:AH7" si="0">C8+C72</f>
         <v>0</v>
@@ -2319,10 +2341,10 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="3">
         <f t="shared" ref="C8:AH8" si="1">SUM(C9:C71)</f>
         <v>0</v>
@@ -4722,10 +4744,10 @@
       <c r="AH71" s="11"/>
     </row>
     <row r="72" spans="1:34" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="104" t="s">
+      <c r="A72" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="105"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="4">
         <f t="shared" ref="C72:AH72" si="2">SUM(C73:C83)</f>
         <v>0</v>
@@ -5253,6 +5275,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="S2:AH2"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="AG3:AH4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AE3:AF4"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F4:G4"/>
@@ -5269,19 +5304,6 @@
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="S2:AH2"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="AG3:AH4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:U4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125978" footer="0.31496062992125978"/>
   <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293"/>
@@ -5295,11 +5317,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A76"/>
+      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7558,6 +7580,7 @@
       <c r="Z77" s="82"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:Z2"/>
   <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="I1:K1"/>
@@ -7567,6 +7590,16 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>-15</formula>
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notBetween">
+      <formula>-15</formula>
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -7576,7 +7609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7741,11 +7774,11 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="between">
       <formula>15</formula>
       <formula>-15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="notBetween">
       <formula>15</formula>
       <formula>-15</formula>
     </cfRule>
@@ -7790,10 +7823,10 @@
       <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:35" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="128" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="117"/>
@@ -7811,7 +7844,7 @@
       <c r="O2" s="117"/>
       <c r="P2" s="117"/>
       <c r="Q2" s="118"/>
-      <c r="R2" s="129" t="s">
+      <c r="R2" s="116" t="s">
         <v>4</v>
       </c>
       <c r="S2" s="117"/>
@@ -7832,15 +7865,15 @@
       <c r="AI2" s="33"/>
     </row>
     <row r="3" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="123" t="s">
+      <c r="A3" s="129"/>
+      <c r="B3" s="125" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="117"/>
       <c r="D3" s="117"/>
       <c r="E3" s="117"/>
       <c r="F3" s="118"/>
-      <c r="G3" s="123" t="s">
+      <c r="G3" s="125" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="117"/>
@@ -7859,14 +7892,14 @@
         <v>9</v>
       </c>
       <c r="Q3" s="120"/>
-      <c r="R3" s="123" t="s">
+      <c r="R3" s="125" t="s">
         <v>10</v>
       </c>
       <c r="S3" s="117"/>
       <c r="T3" s="117"/>
       <c r="U3" s="117"/>
       <c r="V3" s="118"/>
-      <c r="W3" s="123" t="s">
+      <c r="W3" s="125" t="s">
         <v>11</v>
       </c>
       <c r="X3" s="117"/>
@@ -7888,25 +7921,25 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" s="26" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="127" t="s">
+      <c r="A4" s="129"/>
+      <c r="B4" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="118"/>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="125" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="118"/>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="124" t="s">
+      <c r="H4" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="125" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="117"/>
@@ -7917,24 +7950,24 @@
       <c r="O4" s="122"/>
       <c r="P4" s="121"/>
       <c r="Q4" s="122"/>
-      <c r="R4" s="127" t="s">
+      <c r="R4" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="123" t="s">
+      <c r="S4" s="125" t="s">
         <v>13</v>
       </c>
       <c r="T4" s="118"/>
-      <c r="U4" s="123" t="s">
+      <c r="U4" s="125" t="s">
         <v>14</v>
       </c>
       <c r="V4" s="118"/>
-      <c r="W4" s="127" t="s">
+      <c r="W4" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="124" t="s">
+      <c r="X4" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="123" t="s">
+      <c r="Y4" s="125" t="s">
         <v>20</v>
       </c>
       <c r="Z4" s="117"/>
@@ -7948,8 +7981,8 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" s="32" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="126"/>
-      <c r="B5" s="128"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -7962,8 +7995,8 @@
       <c r="F5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
@@ -7991,7 +8024,7 @@
       <c r="Q5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="128"/>
+      <c r="R5" s="127"/>
       <c r="S5" s="14" t="s">
         <v>21</v>
       </c>
@@ -8004,8 +8037,8 @@
       <c r="V5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="128"/>
-      <c r="X5" s="126"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="124"/>
       <c r="Y5" s="14" t="s">
         <v>15</v>
       </c>
@@ -14503,18 +14536,6 @@
   </sheetData>
   <autoFilter ref="A6:AG80"/>
   <mergeCells count="25">
-    <mergeCell ref="R2:AG2"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AB3:AC4"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="W3:AA3"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="P3:Q4"/>
     <mergeCell ref="I4:K4"/>
@@ -14528,59 +14549,71 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="N3:O4"/>
+    <mergeCell ref="R2:AG2"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AB3:AC4"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="W3:AA3"/>
   </mergeCells>
   <conditionalFormatting sqref="G70:G80">
-    <cfRule type="cellIs" dxfId="35" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>$L70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W70:W80">
-    <cfRule type="cellIs" dxfId="32" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>$AB70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>-22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W69">
-    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>$AB8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>-50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="26" priority="33" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>AB7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>-50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G69">
-    <cfRule type="cellIs" dxfId="23" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="37" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="37" stopIfTrue="1" operator="greaterThan">
       <formula>$L7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>-50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14590,91 +14623,91 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF113:AG124 L81:M110 AB81:AC402">
-    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L111:M309">
-    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81:O107 AD81:AE101">
-    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P81:Q266 AF81:AG112">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:H107 W81:X104">
-    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H80">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 AB70:AC80 L70:M80">
-    <cfRule type="cellIs" dxfId="13" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>-30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD70:AE80 N70:O80">
-    <cfRule type="cellIs" dxfId="11" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>-40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF70:AG80 P70:P80">
-    <cfRule type="cellIs" dxfId="9" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>-7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q70:Q80">
-    <cfRule type="cellIs" dxfId="7" priority="26" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>-10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X70:X80">
-    <cfRule type="cellIs" dxfId="5" priority="28" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>-22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF7:AG69 P7:Q69">
-    <cfRule type="cellIs" dxfId="3" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>-10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB7:AE69 X7:X69 L7:O69">
-    <cfRule type="cellIs" dxfId="1" priority="41" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="41" stopIfTrue="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>-50</formula>
     </cfRule>
   </conditionalFormatting>
